--- a/Source/Amba.Report.Test/Amba.Report.Test/Templates/ReportTemplate1.xlsx
+++ b/Source/Amba.Report.Test/Amba.Report.Test/Templates/ReportTemplate1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AmbaCloud\Amba.Report\Source\Amba.Report\Amba.Report\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AmbaCloud\Amba.Report\Source\Amba.Report.Test\Amba.Report.Test\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="120" windowWidth="23775" windowHeight="15015"/>
+    <workbookView xWindow="25650" yWindow="120" windowWidth="23775" windowHeight="15015"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="Date">Report!$B$3</definedName>
     <definedName name="GroupRows">Report!$12:$12</definedName>
+    <definedName name="GroupRows.Details">Report!$13:$13</definedName>
+    <definedName name="GroupRows.Details.Item">Report!$A$13</definedName>
+    <definedName name="GroupRows.Details.Price">Report!$C$13</definedName>
+    <definedName name="GroupRows.Details.Qnt">Report!$B$13</definedName>
     <definedName name="GroupRows.Item">Report!$A$12</definedName>
-    <definedName name="GroupRowsDetails">Report!$13:$13</definedName>
-    <definedName name="GroupRowsDetails.Item">Report!$A$13</definedName>
-    <definedName name="GroupRowsDetails.Price">Report!$C$13</definedName>
-    <definedName name="GroupRowsDetails.Qnt">Report!$B$13</definedName>
-    <definedName name="Item.Price">Report!$C$8</definedName>
     <definedName name="Items">Report!$8:$8</definedName>
     <definedName name="Items.Item">Report!$A$8</definedName>
+    <definedName name="Items.Price">Report!$C$8</definedName>
     <definedName name="Items.Qnt">Report!$B$8</definedName>
     <definedName name="Num">Report!$B$2</definedName>
     <definedName name="Org.Name">Report!$B$4</definedName>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -175,16 +175,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +541,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -546,20 +552,23 @@
     <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -608,11 +617,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <f>B12*C12</f>
         <v>0</v>
       </c>
